--- a/biology/Biochimie/TACSTD2/TACSTD2.xlsx
+++ b/biology/Biochimie/TACSTD2/TACSTD2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le transducteur de signal calcique associé aux tumeurs 2, également connu sous les noms de Trop-2 ou d'antigène de la glycoprotéine-1 épithéliale (EGP-1)[5], est une protéine qui, chez l'humain, est codée par le gène TACSTD2[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le transducteur de signal calcique associé aux tumeurs 2, également connu sous les noms de Trop-2 ou d'antigène de la glycoprotéine-1 épithéliale (EGP-1), est une protéine qui, chez l'humain, est codée par le gène TACSTD2.
 Ce gène sans intron code un antigène associé au carcinome défini par[pas clair] l'anticorps monoclonal GA733. Cet antigène appartient à une famille comprenant au moins deux protéines membranaires de type I. Il transduit un signal calcique intracellulaire et agit comme un récepteur de surface cellulaire.
-Des mutations de ce gène entrainent une dystrophie cornéenne en forme de goutte gélatineuse, une maladie génétique à transmission autosomique récessive caractérisée par une amylose cornéenne sévère conduisant à la cécité[8].
+Des mutations de ce gène entrainent une dystrophie cornéenne en forme de goutte gélatineuse, une maladie génétique à transmission autosomique récessive caractérisée par une amylose cornéenne sévère conduisant à la cécité.
 Cet antigène est la cible du sacituzumab govitecan, un médicament conjugué anticorps + inhibiteur de topoïsomérase.
 </t>
         </is>
